--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Deferment201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Deferment201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="34" activeTab="36"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="34" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -45,12 +50,12 @@
     <sheet name="PayrollForNIDirctorDefrmntMarch" sheetId="18" r:id="rId36"/>
     <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="117">
   <si>
     <t>TC</t>
   </si>
@@ -398,12 +403,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,13 +521,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,9 +612,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,6 +664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,22 +856,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -854,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>86</v>
       </c>
@@ -868,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -882,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -896,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
@@ -910,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
@@ -924,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -938,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>88</v>
       </c>
@@ -952,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>100</v>
       </c>
@@ -966,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -980,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
@@ -994,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -1008,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -1022,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
@@ -1036,7 +1081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>102</v>
       </c>
@@ -1050,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
@@ -1078,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>103</v>
       </c>
@@ -1092,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -1106,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -1120,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>104</v>
       </c>
@@ -1134,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -1148,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
@@ -1162,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>105</v>
       </c>
@@ -1176,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -1190,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -1204,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -1218,7 +1263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -1232,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -1246,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
@@ -1260,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -1274,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
@@ -1302,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>72</v>
       </c>
@@ -1316,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -1344,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -1365,29 +1410,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -1474,31 +1519,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -1556,29 +1601,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -1656,37 +1701,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -1770,33 +1815,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -1854,28 +1899,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -1953,36 +1998,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2066,31 +2111,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2119,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -2142,7 +2186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" s="7"/>
     </row>
   </sheetData>
@@ -2151,28 +2195,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2250,37 +2294,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2324,7 +2368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2364,34 +2408,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -2450,24 +2494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -2525,28 +2569,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2587,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2624,36 +2668,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2697,7 +2741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2737,32 +2781,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2791,7 +2835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -2820,28 +2864,28 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2882,7 +2926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -2919,36 +2963,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +3036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3032,32 +3076,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3086,7 +3130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -3115,28 +3159,28 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3177,7 +3221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3214,36 +3258,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3287,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3327,32 +3371,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +3425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -3410,28 +3454,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3472,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3509,7 +3553,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -3517,28 +3561,28 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3579,7 +3623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3616,36 +3660,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3729,32 +3773,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3783,7 +3827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -3812,29 +3856,29 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3875,7 +3919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -3912,36 +3956,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +4029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4025,34 +4069,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -4111,28 +4155,28 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4173,7 +4217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4210,37 +4254,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +4328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4307,7 +4351,7 @@
         <v>114</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>83</v>
@@ -4324,36 +4368,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4437,32 +4481,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4491,7 +4535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -4514,35 +4558,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4583,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4620,37 +4664,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4694,7 +4738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4734,32 +4778,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4788,7 +4832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -4818,28 +4862,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4880,7 +4924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
@@ -4917,7 +4961,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Deferment201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Deferment201718.xlsx
@@ -1,61 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="34" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="36" firstSheet="34" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_DefrmntMonth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctorDefrmntApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_DefrmntMonth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctorDefrmntMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_DefrmntMonth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctorDefrmntJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_DefrmntMonth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctorDefrmntJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_DefrmntMonth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctorDefrmntAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_DefrmntMonth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctorDefrmntSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
-    <sheet name="NIDirector_DefrmntMonth7" sheetId="33" r:id="rId20"/>
-    <sheet name="PayrollForNIDirctorDefrmntOct" sheetId="13" r:id="rId21"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
-    <sheet name="NIDirector_DefrmntMonth8" sheetId="34" r:id="rId23"/>
-    <sheet name="PayrollForNIDirctorDefrmntNov" sheetId="14" r:id="rId24"/>
-    <sheet name="TestReportsNovember" sheetId="23" r:id="rId25"/>
-    <sheet name="NIDirector_DefrmntMonth9" sheetId="35" r:id="rId26"/>
-    <sheet name="PayrollForNIDirctorDefrmntDec" sheetId="15" r:id="rId27"/>
-    <sheet name="TestReportsDecember" sheetId="24" r:id="rId28"/>
-    <sheet name="NIDirector_DefrmntMonth10" sheetId="36" r:id="rId29"/>
-    <sheet name="PayrollForNIDirctorDefrmntJan" sheetId="16" r:id="rId30"/>
-    <sheet name="TestReportsJanuary" sheetId="25" r:id="rId31"/>
-    <sheet name="NIDirector_DefrmntMonth11" sheetId="37" r:id="rId32"/>
-    <sheet name="PayrollForNIDirctorDefrmntFeb" sheetId="17" r:id="rId33"/>
-    <sheet name="TestReportsFebruary" sheetId="26" r:id="rId34"/>
-    <sheet name="NIDirector_DefrmntMonth12" sheetId="4" r:id="rId35"/>
-    <sheet name="PayrollForNIDirctorDefrmntMarch" sheetId="18" r:id="rId36"/>
-    <sheet name="TestReportsMarch" sheetId="27" r:id="rId37"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_DefrmntMonth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctorDefrmntApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_DefrmntMonth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctorDefrmntMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_DefrmntMonth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctorDefrmntJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_DefrmntMonth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctorDefrmntJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_DefrmntMonth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctorDefrmntAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_DefrmntMonth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctorDefrmntSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="NIDirector_DefrmntMonth7" r:id="rId20" sheetId="33"/>
+    <sheet name="PayrollForNIDirctorDefrmntOct" r:id="rId21" sheetId="13"/>
+    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
+    <sheet name="NIDirector_DefrmntMonth8" r:id="rId23" sheetId="34"/>
+    <sheet name="PayrollForNIDirctorDefrmntNov" r:id="rId24" sheetId="14"/>
+    <sheet name="TestReportsNovember" r:id="rId25" sheetId="23"/>
+    <sheet name="NIDirector_DefrmntMonth9" r:id="rId26" sheetId="35"/>
+    <sheet name="PayrollForNIDirctorDefrmntDec" r:id="rId27" sheetId="15"/>
+    <sheet name="TestReportsDecember" r:id="rId28" sheetId="24"/>
+    <sheet name="NIDirector_DefrmntMonth10" r:id="rId29" sheetId="36"/>
+    <sheet name="PayrollForNIDirctorDefrmntJan" r:id="rId30" sheetId="16"/>
+    <sheet name="TestReportsJanuary" r:id="rId31" sheetId="25"/>
+    <sheet name="NIDirector_DefrmntMonth11" r:id="rId32" sheetId="37"/>
+    <sheet name="PayrollForNIDirctorDefrmntFeb" r:id="rId33" sheetId="17"/>
+    <sheet name="TestReportsFebruary" r:id="rId34" sheetId="26"/>
+    <sheet name="NIDirector_DefrmntMonth12" r:id="rId35" sheetId="4"/>
+    <sheet name="PayrollForNIDirctorDefrmntMarch" r:id="rId36" sheetId="18"/>
+    <sheet name="TestReportsMarch" r:id="rId37" sheetId="27"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="116">
   <si>
     <t>TC</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -411,7 +408,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,60 +469,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -541,10 +539,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -579,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +629,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +734,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -745,13 +743,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -761,7 +759,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -770,7 +768,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -779,7 +777,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -789,12 +787,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -825,7 +823,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -844,7 +842,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -856,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -865,10 +863,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -899,9 +897,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -913,9 +911,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -927,9 +925,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.149999999999999" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -941,9 +939,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -955,12 +953,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -969,9 +967,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.899999999999999" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -983,9 +981,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -997,12 +995,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1011,9 +1009,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.9" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1025,9 +1023,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -1039,12 +1037,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1053,9 +1051,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="14" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1067,9 +1065,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -1081,12 +1079,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1095,9 +1093,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1109,9 +1107,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -1123,12 +1121,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1137,9 +1135,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="23.45" r="20" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1151,9 +1149,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -1165,12 +1163,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1179,9 +1177,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="23" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1193,9 +1191,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>14</v>
@@ -1207,12 +1205,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1221,9 +1219,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27" r="26" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1235,9 +1233,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>14</v>
@@ -1249,12 +1247,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1263,9 +1261,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.9" r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1277,9 +1275,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>14</v>
@@ -1291,12 +1289,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1305,9 +1303,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.6" r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1319,9 +1317,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>14</v>
@@ -1333,12 +1331,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1347,9 +1345,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="24.6" r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1361,9 +1359,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>14</v>
@@ -1377,10 +1375,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -1389,9 +1387,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="22.9" r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -1404,35 +1402,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -1476,58 +1474,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1536,14 +1534,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1572,15 +1570,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -1596,34 +1594,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1664,33 +1662,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -1701,37 +1699,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -1775,39 +1773,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -1815,33 +1813,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1870,15 +1868,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -1894,33 +1892,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1961,33 +1959,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -1998,36 +1996,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2071,39 +2069,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2111,30 +2109,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2163,15 +2161,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -2190,33 +2188,33 @@
       <c r="E4" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2257,33 +2255,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -2294,37 +2292,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2368,39 +2366,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2408,15 +2406,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,14 +2423,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,13 +2464,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -2488,30 +2486,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2540,15 +2538,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -2564,33 +2562,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2631,33 +2629,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -2668,36 +2666,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -2741,39 +2739,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -2781,15 +2779,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2798,15 +2796,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2835,15 +2833,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -2859,33 +2857,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2926,33 +2924,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -2963,36 +2961,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3024,7 +3022,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -3036,39 +3034,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -3076,32 +3074,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3130,15 +3128,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -3154,33 +3152,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3221,33 +3219,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -3258,36 +3256,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -3331,39 +3329,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -3371,15 +3369,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3388,15 +3386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3425,15 +3423,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -3449,33 +3447,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3516,15 +3514,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
@@ -3533,13 +3531,13 @@
         <v>32</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>33</v>
@@ -3553,36 +3551,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3623,33 +3621,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -3660,36 +3658,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="68.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="68.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3721,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -3733,39 +3731,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -3773,32 +3771,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1E00-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3827,15 +3825,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -3851,34 +3849,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="67.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="67.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -3919,33 +3917,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -3956,36 +3954,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4017,7 +4015,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -4029,39 +4027,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -4069,15 +4067,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4086,17 +4084,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="6.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4125,15 +4123,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -4149,34 +4147,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="71.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="71.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4217,33 +4215,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -4254,14 +4252,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -4270,21 +4268,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -4328,39 +4326,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -4368,36 +4366,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4429,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -4441,12 +4439,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>31</v>
@@ -4458,22 +4456,22 @@
         <v>32</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -4481,32 +4479,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" r:id="rId2" ref="C2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4535,15 +4533,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -4558,35 +4556,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="3" s="5" spans="1:9" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4627,33 +4625,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -4664,37 +4662,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="1" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
@@ -4738,39 +4736,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.15" r="2" s="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>4</v>
@@ -4778,14 +4776,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,16 +4792,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4832,15 +4830,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
@@ -4856,34 +4854,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -4924,33 +4922,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>34</v>
@@ -4961,8 +4959,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>